--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B253"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,2018 +447,4002 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.256207550747501</v>
+        <v>0.8829213436785227</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2027490842174914</v>
+        <v>0.8857934801688772</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2468588563457828</v>
+        <v>0.8153282450139101</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1101421263584141</v>
+        <v>0.7360026482671711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2448656998728486</v>
+        <v>0.1612277637280838</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1561670224914562</v>
+        <v>0.155636577659096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2203966453988305</v>
+        <v>0.8227108032268129</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2734567024828148</v>
+        <v>0.7126304999416797</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8734269755384774</v>
+        <v>0.1947786043183811</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8074815904979987</v>
+        <v>0.1646047777511929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7107098450033278</v>
+        <v>0.1662556156222984</v>
       </c>
       <c r="B7" t="n">
-        <v>0.83782039403296</v>
+        <v>0.1737961183158024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.02621931706295226</v>
+        <v>0.09486334720810739</v>
       </c>
       <c r="B8" t="n">
-        <v>0.019610858345808</v>
+        <v>0.2785694489843969</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7918191500486936</v>
+        <v>0.7329093613010745</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7640927049991726</v>
+        <v>0.7752668359191209</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1946999789112788</v>
+        <v>0.7890873175900759</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2934862741174011</v>
+        <v>0.8261695398686233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1260259046195857</v>
+        <v>0.7203803310046787</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03329917541005064</v>
+        <v>0.7351906814004107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.07825113058426704</v>
+        <v>0.8999611854908063</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02889186634646539</v>
+        <v>0.7587998835735108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.06715184065912998</v>
+        <v>0.2102059859600409</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04073683940155441</v>
+        <v>0.1797519163360776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.750357958150777</v>
+        <v>0.2441710677909676</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8469002886190446</v>
+        <v>0.2684208341585523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8141143547954185</v>
+        <v>0.01039574378205227</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8908560890164456</v>
+        <v>0.2523871018298081</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1565714067236466</v>
+        <v>0.09219995695560156</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1718715384085765</v>
+        <v>0.08872669794066286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8883565564901119</v>
+        <v>0.1357478634514307</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8165725023111901</v>
+        <v>0.03840218651889314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8144833362667703</v>
+        <v>0.7161647608701671</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8644013791756537</v>
+        <v>0.8879360084822103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8262724802566463</v>
+        <v>0.7350752980459404</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8180807858385279</v>
+        <v>0.7798028433879864</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1883703649943426</v>
+        <v>0.1833377006169981</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2281246326994781</v>
+        <v>0.01471797254676511</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8525064980299902</v>
+        <v>0.09996873021056221</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8215477693902775</v>
+        <v>0.2952160260312688</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.8482977377850341</v>
+        <v>0.2579646444058328</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7898504424099257</v>
+        <v>0.1846310239869018</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8925847098655862</v>
+        <v>0.8604996475416291</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7600285746114103</v>
+        <v>0.8042699589555736</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1869370073766865</v>
+        <v>0.7798410168645409</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2498551289997242</v>
+        <v>0.8633414981502699</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8358538749277284</v>
+        <v>0.1077536287080126</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8858359245594396</v>
+        <v>0.1798947161659506</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2386209020619744</v>
+        <v>0.8817734482902619</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2580206630150411</v>
+        <v>0.8770508360568181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.815052165606717</v>
+        <v>0.7340806704505893</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7512486860033856</v>
+        <v>0.7808897722255151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.04872813443087435</v>
+        <v>0.2063651441942801</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03982767794354136</v>
+        <v>0.2712350593953431</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7334386867076392</v>
+        <v>0.06949368717173078</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7868889551379912</v>
+        <v>0.1424095679689558</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.2747232992722568</v>
+        <v>0.7650699211897637</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2176660790937879</v>
+        <v>0.7590515060381368</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2246395418074762</v>
+        <v>0.8815226089048775</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1756656401203202</v>
+        <v>0.79347632333748</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.866403002319277</v>
+        <v>0.8705464521434139</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7299048249660304</v>
+        <v>0.7033408633471256</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.7274183337287653</v>
+        <v>0.7501057213375115</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7726819269220603</v>
+        <v>0.7570166637818628</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.006166613511206565</v>
+        <v>0.1413522021958363</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1213175347039075</v>
+        <v>0.01012751961726435</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.7246636946248881</v>
+        <v>0.7041899675952504</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8903029667806122</v>
+        <v>0.8965950531508189</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7685561982144974</v>
+        <v>0.1819502521083287</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8490999990383876</v>
+        <v>0.2376001619625308</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.08849007166720745</v>
+        <v>0.1025129733280122</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2894780850254238</v>
+        <v>0.2231927585125505</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.137635917641526</v>
+        <v>0.05603200249238697</v>
       </c>
       <c r="B38" t="n">
-        <v>0.023478532845111</v>
+        <v>0.192420098622202</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.06253551163622073</v>
+        <v>0.793910794227394</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02538632039894772</v>
+        <v>0.8864971115142176</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2132821155635627</v>
+        <v>0.8131986017249615</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1782225499856827</v>
+        <v>0.7869897398076278</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.7873623775807916</v>
+        <v>0.7610981519854619</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7905179299040681</v>
+        <v>0.853847239596265</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.09440182187353087</v>
+        <v>0.7303275279372502</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0007829380541670372</v>
+        <v>0.7791602519355046</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8139496901535118</v>
+        <v>0.2356691667661155</v>
       </c>
       <c r="B43" t="n">
-        <v>0.801519580710607</v>
+        <v>0.03963798730710355</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7806129773694871</v>
+        <v>0.2611334967788711</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7049163942193113</v>
+        <v>0.1232404002741316</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1604861403541413</v>
+        <v>0.8114118330287403</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2111377594998469</v>
+        <v>0.7791529782557296</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1088060151411132</v>
+        <v>0.7854812359411192</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2509330066027607</v>
+        <v>0.7602823006830207</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.7715226218516942</v>
+        <v>0.8050287333607111</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7673158227450939</v>
+        <v>0.7695667344163911</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.1288466930772684</v>
+        <v>0.03707396973505769</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1547923019394798</v>
+        <v>0.2945358778623683</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.2525986982594337</v>
+        <v>0.7380614974869749</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1612379655514724</v>
+        <v>0.872231600445087</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.27614115104819</v>
+        <v>0.825615331222103</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1125366674603988</v>
+        <v>0.8754177393087391</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7356501310279389</v>
+        <v>0.8675978467288405</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7430404744867862</v>
+        <v>0.7380086316096535</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7796301067952963</v>
+        <v>0.005092842595570002</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8120412533900792</v>
+        <v>0.2341593501530564</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7644081409931307</v>
+        <v>0.7556088466686679</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8999564785395479</v>
+        <v>0.8962881397497819</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8513126937606278</v>
+        <v>0.7403221124752228</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7201660008814914</v>
+        <v>0.8951262015347332</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.2378121792095299</v>
+        <v>0.8482865891014334</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1378704640341261</v>
+        <v>0.798599913133003</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.02612469728705544</v>
+        <v>0.7584774648820153</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08186354435540801</v>
+        <v>0.7987196210104219</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.7574295013671957</v>
+        <v>0.2796581201757318</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8705109423438654</v>
+        <v>0.04499645362024705</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.890108105001473</v>
+        <v>0.04497611421878058</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7767192989620991</v>
+        <v>0.1668275200988301</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8189288118882532</v>
+        <v>0.7322855821870344</v>
       </c>
       <c r="B59" t="n">
-        <v>0.715462777424829</v>
+        <v>0.741866598133697</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1131810228171092</v>
+        <v>0.7910042301349502</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08940083228699643</v>
+        <v>0.7444671277086579</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8310965773614503</v>
+        <v>0.7244838319773673</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7280059604284286</v>
+        <v>0.8933487487100112</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.7113047895454804</v>
+        <v>0.7606658774641041</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7200848533440543</v>
+        <v>0.8138646091632</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8653791661700564</v>
+        <v>0.1164029135075355</v>
       </c>
       <c r="B63" t="n">
-        <v>0.718604056020329</v>
+        <v>0.07843586966160285</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.7120044352237371</v>
+        <v>0.7985158642695572</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7325861959190144</v>
+        <v>0.8025210788561244</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.893646811156025</v>
+        <v>0.2123701322656406</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7047880048246509</v>
+        <v>0.02087153194600542</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.7420327665235519</v>
+        <v>0.2143820148465819</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7596086392916013</v>
+        <v>0.1331013701137012</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1921050687696867</v>
+        <v>0.1246212113415949</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1844817312496593</v>
+        <v>0.2493941658886986</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.01997565249876528</v>
+        <v>0.1877845532576406</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2546373459985729</v>
+        <v>0.02328734808391154</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8830714396677534</v>
+        <v>0.2230805099797644</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8612063265838229</v>
+        <v>0.1219934820199702</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.02278521446998263</v>
+        <v>0.2354036181557547</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001177988310264544</v>
+        <v>0.01901386709709062</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.04578098193401445</v>
+        <v>0.818058272241332</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03344213517855188</v>
+        <v>0.7611461378103933</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.7810418298021415</v>
+        <v>0.797241539628589</v>
       </c>
       <c r="B72" t="n">
-        <v>0.767984998648739</v>
+        <v>0.8404857327405351</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.1496514327995752</v>
+        <v>0.2880974802600139</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1619173000771704</v>
+        <v>0.1683595964308824</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.7163971210086082</v>
+        <v>0.8210704560094514</v>
       </c>
       <c r="B74" t="n">
-        <v>0.753776094247544</v>
+        <v>0.7004379176671329</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.05507636642488663</v>
+        <v>0.1983151236025927</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2151597277636474</v>
+        <v>0.1221148403947764</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.7139002956992051</v>
+        <v>0.7322239193035891</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8748668378491201</v>
+        <v>0.7435877906959322</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1488659654844542</v>
+        <v>0.7676904413127431</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2737649761767459</v>
+        <v>0.7513587136063388</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8101070005374238</v>
+        <v>0.8851004730577403</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8470473446960478</v>
+        <v>0.8735364776361406</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.765702496629141</v>
+        <v>0.7103416468571012</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7110053693090885</v>
+        <v>0.7497824388326462</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.1161141873873812</v>
+        <v>0.8474041322552264</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1992245266676</v>
+        <v>0.8890091265429377</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.2671685806897398</v>
+        <v>0.8327554425076154</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2514670874254509</v>
+        <v>0.8539523413520334</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.7483083661875818</v>
+        <v>0.839746872046754</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8016317098921879</v>
+        <v>0.7414072527585022</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.7913168950929527</v>
+        <v>0.08107531783493867</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8272592250210106</v>
+        <v>0.2387828600578195</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.09044625649930563</v>
+        <v>0.7015193664115283</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2187311264342215</v>
+        <v>0.72360755931442</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1422356933536931</v>
+        <v>0.8855297073888185</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2428282805414629</v>
+        <v>0.7052347139562061</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.02261510875803036</v>
+        <v>0.7367090600014515</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2578633266907955</v>
+        <v>0.8091954478169142</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.05788950241371211</v>
+        <v>0.7806843514058259</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1452343353846775</v>
+        <v>0.7426834171953717</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.7064777656435003</v>
+        <v>0.7600666598529308</v>
       </c>
       <c r="B88" t="n">
-        <v>0.871150921101137</v>
+        <v>0.8808515820103103</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.7175842575602487</v>
+        <v>0.1439428021916331</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8120545784392335</v>
+        <v>0.02651111652801915</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.1289257689567692</v>
+        <v>0.8018350279615986</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2996799240281215</v>
+        <v>0.7553815654400688</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.10240033835827</v>
+        <v>0.09426739305693992</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2355927524111124</v>
+        <v>0.03029570369203304</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8650774548586828</v>
+        <v>0.7621202540350558</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8694475870824799</v>
+        <v>0.8252457456774653</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8582446682055329</v>
+        <v>0.0193282678688857</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7601125087703953</v>
+        <v>0.2948606687391065</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.2899466863783078</v>
+        <v>0.8445111652164914</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1174402440893808</v>
+        <v>0.7199392703335199</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.2120197524103339</v>
+        <v>0.07744559873517889</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0208590134131341</v>
+        <v>0.03620752399114243</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.208241505326192</v>
+        <v>0.2405774125810198</v>
       </c>
       <c r="B96" t="n">
-        <v>0.15925883693457</v>
+        <v>0.1749415920993665</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8873436074961827</v>
+        <v>0.7218887863970429</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8673796742545378</v>
+        <v>0.7575060452097582</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8256800781665016</v>
+        <v>0.7229136218005869</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7469491518847887</v>
+        <v>0.8008526614654149</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.02979454838146485</v>
+        <v>0.8176809050466555</v>
       </c>
       <c r="B99" t="n">
-        <v>0.147291171059494</v>
+        <v>0.8770304766276026</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.2212789155905519</v>
+        <v>0.8836548944547929</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1080667796231036</v>
+        <v>0.728676493160072</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.008720326763835362</v>
+        <v>0.882950114618405</v>
       </c>
       <c r="B101" t="n">
-        <v>0.02636515158874149</v>
+        <v>0.8189320528842978</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.2239352296547521</v>
+        <v>0.8107536424406101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1145275095980102</v>
+        <v>0.8275090949120792</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.0460512170726705</v>
+        <v>0.2554449744081903</v>
       </c>
       <c r="B103" t="n">
-        <v>0.00895031268752282</v>
+        <v>0.2419414992382825</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.8706903351471519</v>
+        <v>0.2763625259550513</v>
       </c>
       <c r="B104" t="n">
-        <v>0.886246638612627</v>
+        <v>0.2957306217146832</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.004532904855632935</v>
+        <v>0.8121494787444216</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2647081388890336</v>
+        <v>0.816863971489065</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.1837961604616342</v>
+        <v>0.1840983967342554</v>
       </c>
       <c r="B106" t="n">
-        <v>0.004073222790100706</v>
+        <v>0.1130307980575543</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.1548318105676509</v>
+        <v>0.8680473577179849</v>
       </c>
       <c r="B107" t="n">
-        <v>0.2061971178039555</v>
+        <v>0.7441218301924207</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.7879798065406781</v>
+        <v>0.8773358674759024</v>
       </c>
       <c r="B108" t="n">
-        <v>0.7395705553649441</v>
+        <v>0.8158313105258281</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.7472916053839241</v>
+        <v>0.02219851209376556</v>
       </c>
       <c r="B109" t="n">
-        <v>0.882086429262128</v>
+        <v>0.1160652510672849</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.724581809051683</v>
+        <v>0.7436051436552479</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8271407568470457</v>
+        <v>0.8341939495252793</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.1666967478341727</v>
+        <v>0.007186337973233747</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1220872523537704</v>
+        <v>0.09974344697398338</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.2291173295479531</v>
+        <v>0.720365368957358</v>
       </c>
       <c r="B112" t="n">
-        <v>0.03132994290721944</v>
+        <v>0.8931554453140089</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.0594036057639519</v>
+        <v>0.8873268135056792</v>
       </c>
       <c r="B113" t="n">
-        <v>0.2425943138950957</v>
+        <v>0.8747245966485884</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.08270196869655369</v>
+        <v>0.2419428633250822</v>
       </c>
       <c r="B114" t="n">
-        <v>0.03783697722110124</v>
+        <v>0.09041265426436809</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.195474845770356</v>
+        <v>0.7897277794972828</v>
       </c>
       <c r="B115" t="n">
-        <v>0.06357301821879685</v>
+        <v>0.8694555041388526</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.8211307424964305</v>
+        <v>0.7964223241356877</v>
       </c>
       <c r="B116" t="n">
-        <v>0.7531013880234079</v>
+        <v>0.8373281439605011</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.7899028111385686</v>
+        <v>0.02383199378871733</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7132604540919063</v>
+        <v>0.1227427296845819</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.8304948247319645</v>
+        <v>0.22683159119258</v>
       </c>
       <c r="B118" t="n">
-        <v>0.899256530764028</v>
+        <v>0.00971274534217389</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.262894102499707</v>
+        <v>0.1633898453846859</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1869558348348695</v>
+        <v>0.1382343908541199</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.7072078565901904</v>
+        <v>0.2400514266581917</v>
       </c>
       <c r="B120" t="n">
-        <v>0.7742596986538542</v>
+        <v>0.1083451794580104</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.7939051610790544</v>
+        <v>0.2721099060452901</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8577315349618806</v>
+        <v>0.2206789291933924</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.1910648147798555</v>
+        <v>0.286835227796337</v>
       </c>
       <c r="B122" t="n">
-        <v>0.2451624870499026</v>
+        <v>0.04138194247396874</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.8880973378832702</v>
+        <v>0.8765779472993898</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8344416831997618</v>
+        <v>0.7337965575623707</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.1792484407583217</v>
+        <v>0.01070856450693284</v>
       </c>
       <c r="B124" t="n">
-        <v>0.176413674525492</v>
+        <v>0.1852241669218236</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.07856303691672684</v>
+        <v>0.0675704199905799</v>
       </c>
       <c r="B125" t="n">
-        <v>0.01363502499460065</v>
+        <v>0.03377080666097136</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.184488988980395</v>
+        <v>0.7212420510302513</v>
       </c>
       <c r="B126" t="n">
-        <v>0.06091497097080487</v>
+        <v>0.8517011042063918</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.8496609656652309</v>
+        <v>0.8480981631823037</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7913972784919835</v>
+        <v>0.8071930705147217</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.8308025858533119</v>
+        <v>0.8306783882275723</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7484939963509469</v>
+        <v>0.8268156511911949</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.2033276992401617</v>
+        <v>0.02838673140694609</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2431482291299268</v>
+        <v>0.01082818004018279</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.7517347656410878</v>
+        <v>0.1313309569482995</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8790385669727809</v>
+        <v>0.1669425708392557</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.1418362513654853</v>
+        <v>0.08067730723668072</v>
       </c>
       <c r="B131" t="n">
-        <v>0.2455459323624709</v>
+        <v>0.1701624648589775</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.1650772024299626</v>
+        <v>0.7552508549099232</v>
       </c>
       <c r="B132" t="n">
-        <v>0.027469209821512</v>
+        <v>0.8775457726651639</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.8652175259549209</v>
+        <v>0.297043660062415</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8891808773235628</v>
+        <v>0.2981474269033442</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.004812420507931059</v>
+        <v>0.8313265755074115</v>
       </c>
       <c r="B134" t="n">
-        <v>0.04966119061123796</v>
+        <v>0.7645217216157139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.2208731773502978</v>
+        <v>0.1796372205876642</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1876498061193759</v>
+        <v>0.198146599061322</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.7062603627556527</v>
+        <v>0.7878311646695222</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7847993334970542</v>
+        <v>0.8101900570423249</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.1720424235760071</v>
+        <v>0.8750453925320584</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1558590510354708</v>
+        <v>0.84321907779859</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.1477256444403755</v>
+        <v>0.1179013492619784</v>
       </c>
       <c r="B138" t="n">
-        <v>0.2104730393306687</v>
+        <v>0.1118217921462291</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.2405419763982799</v>
+        <v>0.2346191910311853</v>
       </c>
       <c r="B139" t="n">
-        <v>0.137202528888679</v>
+        <v>0.1908002894433576</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.7123020954072362</v>
+        <v>0.1010141660527429</v>
       </c>
       <c r="B140" t="n">
-        <v>0.818698273177449</v>
+        <v>0.2179691609678272</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.8713973265260129</v>
+        <v>0.02681429846034614</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8528167033331495</v>
+        <v>0.2344091774077894</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.7792818787860656</v>
+        <v>0.7847356966897465</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8356527048753575</v>
+        <v>0.7282844175664231</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.8937041354532391</v>
+        <v>0.2959808501925544</v>
       </c>
       <c r="B143" t="n">
-        <v>0.816610041077803</v>
+        <v>0.08181513390837224</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.2790063704550987</v>
+        <v>0.1399994442830283</v>
       </c>
       <c r="B144" t="n">
-        <v>0.2408746472869969</v>
+        <v>0.06398467650506268</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.7664354745273991</v>
+        <v>0.7958367126365788</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8165451071717174</v>
+        <v>0.7383114346687278</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.1845575816203913</v>
+        <v>0.7106889151983314</v>
       </c>
       <c r="B146" t="n">
-        <v>0.06533870947790488</v>
+        <v>0.8628335025605447</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.1855549702757402</v>
+        <v>0.04245108594690335</v>
       </c>
       <c r="B147" t="n">
-        <v>0.05615228036569005</v>
+        <v>0.2797771201842724</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.8639080661187384</v>
+        <v>0.2934166020537367</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8551760689218942</v>
+        <v>0.1784587087361359</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.8837004038085974</v>
+        <v>0.01249545453592629</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8575000046558384</v>
+        <v>0.08743871575440929</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.2029586275207376</v>
+        <v>0.1621077003602312</v>
       </c>
       <c r="B150" t="n">
-        <v>0.2700467171491595</v>
+        <v>0.1335798796607048</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.8783213879282867</v>
+        <v>0.8636448700484562</v>
       </c>
       <c r="B151" t="n">
-        <v>0.853146470894572</v>
+        <v>0.7436620570451302</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.0934741259504753</v>
+        <v>0.1142534778485463</v>
       </c>
       <c r="B152" t="n">
-        <v>0.07692456316361272</v>
+        <v>0.02578151218470721</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.04872537065448466</v>
+        <v>0.8609003457079738</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1244056034643238</v>
+        <v>0.8624930135432796</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.1033099579535044</v>
+        <v>0.2124765140231832</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1993528508965749</v>
+        <v>0.2196388812782835</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.08070876548277496</v>
+        <v>0.09214609048245884</v>
       </c>
       <c r="B155" t="n">
-        <v>0.04164573314893131</v>
+        <v>0.02570604164202111</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.2652967635814434</v>
+        <v>0.7840594795582942</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1596194743143165</v>
+        <v>0.8479286498721866</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.7565838933942078</v>
+        <v>0.7642270484245</v>
       </c>
       <c r="B157" t="n">
-        <v>0.8125706981459812</v>
+        <v>0.7335564221635735</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.1765306107478296</v>
+        <v>0.7576154657637647</v>
       </c>
       <c r="B158" t="n">
-        <v>0.2760000248767741</v>
+        <v>0.8578970221949991</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.2312497427868633</v>
+        <v>0.8824554106714425</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1251250663109305</v>
+        <v>0.8308575880133304</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.8884915028901045</v>
+        <v>0.7177138026527241</v>
       </c>
       <c r="B160" t="n">
-        <v>0.8247242269246875</v>
+        <v>0.8364318421028822</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.82744120532219</v>
+        <v>0.1312758009245715</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7936237807156367</v>
+        <v>0.20005402447197</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.8148916643608538</v>
+        <v>0.765205386518354</v>
       </c>
       <c r="B162" t="n">
-        <v>0.7706475396780038</v>
+        <v>0.7510873600021329</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1903813246276615</v>
+        <v>0.8356919067502179</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1587297670391218</v>
+        <v>0.7413581079340069</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.749320764563599</v>
+        <v>0.7217803052438705</v>
       </c>
       <c r="B164" t="n">
-        <v>0.7518825709817549</v>
+        <v>0.7596345114576054</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.8968948424691426</v>
+        <v>0.8503261246531015</v>
       </c>
       <c r="B165" t="n">
-        <v>0.7613382868653297</v>
+        <v>0.7032988453276843</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.06444692363501227</v>
+        <v>0.2589059977749588</v>
       </c>
       <c r="B166" t="n">
-        <v>0.05329624195082065</v>
+        <v>0.03311375132123773</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.7301694178097187</v>
+        <v>0.1055768612521619</v>
       </c>
       <c r="B167" t="n">
-        <v>0.7551148924967117</v>
+        <v>0.2528690579087005</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.2466211717532177</v>
+        <v>0.7900839584915342</v>
       </c>
       <c r="B168" t="n">
-        <v>0.07302380070299437</v>
+        <v>0.7355199330349023</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.06060249474867186</v>
+        <v>0.7475685302732576</v>
       </c>
       <c r="B169" t="n">
-        <v>0.03063131121491034</v>
+        <v>0.7016030899491432</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.8102360717995225</v>
+        <v>0.2086696607671182</v>
       </c>
       <c r="B170" t="n">
-        <v>0.7578250809794601</v>
+        <v>0.2352371432879298</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.7314127613286894</v>
+        <v>0.8163750539758114</v>
       </c>
       <c r="B171" t="n">
-        <v>0.707712392075683</v>
+        <v>0.7642844798991401</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.8051583106232109</v>
+        <v>0.7236409387440085</v>
       </c>
       <c r="B172" t="n">
-        <v>0.7708515732274305</v>
+        <v>0.8577635410203757</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.8399813043608109</v>
+        <v>0.7412092242021132</v>
       </c>
       <c r="B173" t="n">
-        <v>0.7051892685493706</v>
+        <v>0.7167784597761478</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.713179365805952</v>
+        <v>0.2532881819961845</v>
       </c>
       <c r="B174" t="n">
-        <v>0.8131551244905222</v>
+        <v>0.2292832195108306</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.7010697183340149</v>
+        <v>0.1178223287276046</v>
       </c>
       <c r="B175" t="n">
-        <v>0.7296767410085933</v>
+        <v>0.2190451304639352</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.1348832842376898</v>
+        <v>0.1448552866360481</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1759821812520665</v>
+        <v>0.06324638836439647</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.8491034621251285</v>
+        <v>0.08000488860846698</v>
       </c>
       <c r="B177" t="n">
-        <v>0.8199765179789529</v>
+        <v>0.1227972716722472</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.7163389975897184</v>
+        <v>0.2365435510558238</v>
       </c>
       <c r="B178" t="n">
-        <v>0.7561988328202676</v>
+        <v>0.2712645961336808</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.1596727916354723</v>
+        <v>0.02720394063211292</v>
       </c>
       <c r="B179" t="n">
-        <v>0.05436680007116899</v>
+        <v>0.2195168680525311</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.8864083450385589</v>
+        <v>0.1773743241441572</v>
       </c>
       <c r="B180" t="n">
-        <v>0.7906047981452015</v>
+        <v>0.2830929707651499</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.8127794580720742</v>
+        <v>0.2317489746283528</v>
       </c>
       <c r="B181" t="n">
-        <v>0.729885312418487</v>
+        <v>0.2854978144744365</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.08211324911710478</v>
+        <v>0.04343695331462839</v>
       </c>
       <c r="B182" t="n">
-        <v>0.2446675869953154</v>
+        <v>0.05791556087421149</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.2464161141858003</v>
+        <v>0.8031963939058505</v>
       </c>
       <c r="B183" t="n">
-        <v>0.05053987728586877</v>
+        <v>0.8491773089072417</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.8151075541978665</v>
+        <v>0.1044595396661547</v>
       </c>
       <c r="B184" t="n">
-        <v>0.7539490969843037</v>
+        <v>0.01074534449929634</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.7211794928614123</v>
+        <v>0.01795045358910166</v>
       </c>
       <c r="B185" t="n">
-        <v>0.8917686773251701</v>
+        <v>0.1304216523518752</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.278600648070474</v>
+        <v>0.2847051438221355</v>
       </c>
       <c r="B186" t="n">
-        <v>0.2411493793383901</v>
+        <v>0.01114488540084121</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.8734078629283276</v>
+        <v>0.8255298003615272</v>
       </c>
       <c r="B187" t="n">
-        <v>0.7331851370795619</v>
+        <v>0.7163664834034702</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.1617055812386866</v>
+        <v>0.8304729061560825</v>
       </c>
       <c r="B188" t="n">
-        <v>0.2476015528054359</v>
+        <v>0.8797966366709017</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.8127174864330373</v>
+        <v>0.7691170161148939</v>
       </c>
       <c r="B189" t="n">
-        <v>0.7628242171993245</v>
+        <v>0.812314686075186</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.752983808458934</v>
+        <v>0.03088796510567159</v>
       </c>
       <c r="B190" t="n">
-        <v>0.7204899200390804</v>
+        <v>0.1590942822153903</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.839460712086872</v>
+        <v>0.7311139874546729</v>
       </c>
       <c r="B191" t="n">
-        <v>0.80279788901092</v>
+        <v>0.7738073020132534</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.7090458841429744</v>
+        <v>0.8916984372496518</v>
       </c>
       <c r="B192" t="n">
-        <v>0.8751860964218612</v>
+        <v>0.7672239348475428</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.2788138254164617</v>
+        <v>0.7530778415986745</v>
       </c>
       <c r="B193" t="n">
-        <v>0.2228510713124051</v>
+        <v>0.7690704018440067</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.1849468392936569</v>
+        <v>0.2338368286272796</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2509039382164912</v>
+        <v>0.2789756365075671</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.7609105119941606</v>
+        <v>0.7518825395351701</v>
       </c>
       <c r="B195" t="n">
-        <v>0.7273033813872909</v>
+        <v>0.8703978528034698</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.01992199175536311</v>
+        <v>0.7955999596718182</v>
       </c>
       <c r="B196" t="n">
-        <v>0.2811270751710366</v>
+        <v>0.7513843190881515</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.2705911154286677</v>
+        <v>0.7168203775053019</v>
       </c>
       <c r="B197" t="n">
-        <v>0.2368597629002291</v>
+        <v>0.7279894848605341</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.8972690514143011</v>
+        <v>0.1011761657159158</v>
       </c>
       <c r="B198" t="n">
-        <v>0.8381273306597283</v>
+        <v>0.005585828349860389</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.2689140990845938</v>
+        <v>0.1143945638810869</v>
       </c>
       <c r="B199" t="n">
-        <v>0.1677795567213134</v>
+        <v>0.1026681498257238</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.7106276820877219</v>
+        <v>0.1404161401407067</v>
       </c>
       <c r="B200" t="n">
-        <v>0.7147298889177207</v>
+        <v>0.01211476960689384</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.2558223115933755</v>
+        <v>0.100072855335758</v>
       </c>
       <c r="B201" t="n">
-        <v>0.05921485805287235</v>
+        <v>0.1581288551486214</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.2456210197075151</v>
+        <v>0.7308926431230219</v>
       </c>
       <c r="B202" t="n">
-        <v>0.2777724595954932</v>
+        <v>0.8668815292741765</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.1523314351696567</v>
+        <v>0.08704920355112335</v>
       </c>
       <c r="B203" t="n">
-        <v>0.1751528684847541</v>
+        <v>0.06613496730134932</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.2922412796716368</v>
+        <v>0.7397229779304464</v>
       </c>
       <c r="B204" t="n">
-        <v>0.2931354403288671</v>
+        <v>0.7626019038211542</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.2422945987370098</v>
+        <v>0.208304841237012</v>
       </c>
       <c r="B205" t="n">
-        <v>0.04554646711697995</v>
+        <v>0.2120357558469719</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.8583903541401515</v>
+        <v>0.8232567381571712</v>
       </c>
       <c r="B206" t="n">
-        <v>0.7626888541754828</v>
+        <v>0.8567776483639404</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.77020946959104</v>
+        <v>0.8704434889926007</v>
       </c>
       <c r="B207" t="n">
-        <v>0.7122497225361535</v>
+        <v>0.756623904745916</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.8837778273367329</v>
+        <v>0.8716630138424984</v>
       </c>
       <c r="B208" t="n">
-        <v>0.822341808149101</v>
+        <v>0.8439084222298096</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.8247689615970801</v>
+        <v>0.1758485970757552</v>
       </c>
       <c r="B209" t="n">
-        <v>0.8879886095077338</v>
+        <v>0.03980977953892538</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.7621865596124835</v>
+        <v>0.03016706584984247</v>
       </c>
       <c r="B210" t="n">
-        <v>0.7208964829661616</v>
+        <v>0.04005389054879068</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.7428973129956412</v>
+        <v>0.1911712848862161</v>
       </c>
       <c r="B211" t="n">
-        <v>0.7656584271950769</v>
+        <v>0.1747558004354439</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.7423659890400668</v>
+        <v>0.06472068225970319</v>
       </c>
       <c r="B212" t="n">
-        <v>0.8187595075483602</v>
+        <v>0.137619943170079</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.1833368038434</v>
+        <v>0.8904415392800367</v>
       </c>
       <c r="B213" t="n">
-        <v>0.1285160305105726</v>
+        <v>0.7871930705753217</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.7124232623118568</v>
+        <v>0.1696267500306069</v>
       </c>
       <c r="B214" t="n">
-        <v>0.7798700343259517</v>
+        <v>0.05495095496441735</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.7384411269602028</v>
+        <v>0.7562852466058276</v>
       </c>
       <c r="B215" t="n">
-        <v>0.8296164177425829</v>
+        <v>0.8897827822312002</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.2483675468179928</v>
+        <v>0.7142123036824114</v>
       </c>
       <c r="B216" t="n">
-        <v>0.160143324229936</v>
+        <v>0.7037672176902366</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.07338041208477382</v>
+        <v>0.02372463734005701</v>
       </c>
       <c r="B217" t="n">
-        <v>0.2637780072774485</v>
+        <v>0.1619266591993441</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.8816455080371016</v>
+        <v>0.8354863939933543</v>
       </c>
       <c r="B218" t="n">
-        <v>0.8130099872214642</v>
+        <v>0.7121271693837959</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.7879852843980605</v>
+        <v>0.8498346999488119</v>
       </c>
       <c r="B219" t="n">
-        <v>0.7463850137523478</v>
+        <v>0.8334709545653565</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.7643513604392904</v>
+        <v>0.8944392415106244</v>
       </c>
       <c r="B220" t="n">
-        <v>0.83178740274032</v>
+        <v>0.7101453839899142</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.878998811992829</v>
+        <v>0.7463074038160445</v>
       </c>
       <c r="B221" t="n">
-        <v>0.7372509444377182</v>
+        <v>0.8342107953354465</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.243019972055634</v>
+        <v>0.8168990779021154</v>
       </c>
       <c r="B222" t="n">
-        <v>0.2932649549599252</v>
+        <v>0.8208561175060717</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.7736916154424526</v>
+        <v>0.2647983541356891</v>
       </c>
       <c r="B223" t="n">
-        <v>0.8010231757370846</v>
+        <v>0.2582392967821112</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.2630858179750706</v>
+        <v>0.8589440760026478</v>
       </c>
       <c r="B224" t="n">
-        <v>0.1212016177395028</v>
+        <v>0.8486731865949776</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.005370970913139694</v>
+        <v>0.8309707686132306</v>
       </c>
       <c r="B225" t="n">
-        <v>0.1024382538385455</v>
+        <v>0.8987218871169296</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.08728739927140224</v>
+        <v>0.7316889052247861</v>
       </c>
       <c r="B226" t="n">
-        <v>0.236220949321986</v>
+        <v>0.7186872315963916</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.1199159270453496</v>
+        <v>0.2139368453592651</v>
       </c>
       <c r="B227" t="n">
-        <v>0.2688788801428844</v>
+        <v>0.1841893054178384</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.2553220654922463</v>
+        <v>0.003995093606888966</v>
       </c>
       <c r="B228" t="n">
-        <v>0.05833214817279155</v>
+        <v>0.01934072586391384</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.8571837065724912</v>
+        <v>0.09236275131736955</v>
       </c>
       <c r="B229" t="n">
-        <v>0.8404749988103726</v>
+        <v>0.2695219617077568</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.2363875469174981</v>
+        <v>0.1019413230387794</v>
       </c>
       <c r="B230" t="n">
-        <v>0.2863409694388149</v>
+        <v>0.0880672107096073</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.8818272491388104</v>
+        <v>0.8558379252983428</v>
       </c>
       <c r="B231" t="n">
-        <v>0.7820585200706213</v>
+        <v>0.810115278153954</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.0402210185026716</v>
+        <v>0.7633535536345917</v>
       </c>
       <c r="B232" t="n">
-        <v>0.00664349991267934</v>
+        <v>0.7983000012001134</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.1207545430471651</v>
+        <v>0.7932140478175</v>
       </c>
       <c r="B233" t="n">
-        <v>0.07130414959950342</v>
+        <v>0.7169267377946389</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.888742665469594</v>
+        <v>0.8422560750300296</v>
       </c>
       <c r="B234" t="n">
-        <v>0.8470148015382725</v>
+        <v>0.8287241095272202</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.2983653525073007</v>
+        <v>0.7099861679370316</v>
       </c>
       <c r="B235" t="n">
-        <v>0.05532419759468394</v>
+        <v>0.8172531128468645</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.8657681439046462</v>
+        <v>0.811748426764006</v>
       </c>
       <c r="B236" t="n">
-        <v>0.7248983054600158</v>
+        <v>0.7045476252682861</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.7084382126260796</v>
+        <v>0.7740810318131987</v>
       </c>
       <c r="B237" t="n">
-        <v>0.7879780790964583</v>
+        <v>0.7172924197761852</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.1287114336665442</v>
+        <v>0.007072591748412537</v>
       </c>
       <c r="B238" t="n">
-        <v>0.009100819798107994</v>
+        <v>0.2449194898348617</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.04933811763839081</v>
+        <v>0.2657258747068552</v>
       </c>
       <c r="B239" t="n">
-        <v>0.2214873662522578</v>
+        <v>0.1014649925375467</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.8393447581421698</v>
+        <v>0.8324016398370795</v>
       </c>
       <c r="B240" t="n">
-        <v>0.8113475330172771</v>
+        <v>0.7474352530235978</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.1690028140616545</v>
+        <v>0.01088107563803191</v>
       </c>
       <c r="B241" t="n">
-        <v>0.294990871508318</v>
+        <v>0.04838493355786953</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.7235323161361559</v>
+        <v>0.06042922157288124</v>
       </c>
       <c r="B242" t="n">
-        <v>0.7646110937854556</v>
+        <v>0.1256097311309134</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.7960667833930911</v>
+        <v>0.08285589187802712</v>
       </c>
       <c r="B243" t="n">
-        <v>0.7981156215701214</v>
+        <v>0.01252708828447586</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.8454759105239859</v>
+        <v>0.2599215039889927</v>
       </c>
       <c r="B244" t="n">
-        <v>0.7910939371159091</v>
+        <v>0.07868148597096117</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.8082876264323493</v>
+        <v>0.2719417315242153</v>
       </c>
       <c r="B245" t="n">
-        <v>0.8405663548817237</v>
+        <v>0.1378207669504524</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.8335136809391042</v>
+        <v>0.08982787084547247</v>
       </c>
       <c r="B246" t="n">
-        <v>0.798521973439751</v>
+        <v>0.1321836228497999</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.1644165963716387</v>
+        <v>0.884267983447157</v>
       </c>
       <c r="B247" t="n">
-        <v>0.07122442018499181</v>
+        <v>0.7742004944364008</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.8868142419419642</v>
+        <v>0.2330227556055957</v>
       </c>
       <c r="B248" t="n">
-        <v>0.7798665064630118</v>
+        <v>0.05470471470483008</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.2193402191469256</v>
+        <v>0.2197070782160986</v>
       </c>
       <c r="B249" t="n">
-        <v>0.2687385228997904</v>
+        <v>0.001485223070342068</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.857246037595642</v>
+        <v>0.09965903882660754</v>
       </c>
       <c r="B250" t="n">
-        <v>0.722283212660676</v>
+        <v>0.262877879464198</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.111509563652605</v>
+        <v>0.7750008334870023</v>
       </c>
       <c r="B251" t="n">
-        <v>0.2580972510799551</v>
+        <v>0.7142918102089547</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.7364664290045295</v>
+        <v>0.7727645925929154</v>
       </c>
       <c r="B252" t="n">
-        <v>0.7545447189080673</v>
+        <v>0.7631869819095742</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.7876413035747286</v>
+        <v>0.1691473163069947</v>
       </c>
       <c r="B253" t="n">
-        <v>0.8397033774241834</v>
+        <v>0.2971312135681137</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.7361220631569111</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.8059956620188649</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.2228964794322299</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.2064233730010259</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.2010061221321414</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.2034214796216419</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.1529411997134557</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.1484875854903422</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.05378560757049415</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.07569056126689905</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.2603232955177259</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.2111402545008758</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.006085271462295805</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.2915858423143098</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.2136500455384581</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.2803106041301858</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.7541478543423336</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.7770689415923331</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.2142188367773765</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.1738741659765019</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.05940495284457822</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.1814239433937018</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.7198271115460482</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.7642943453696209</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.1296541468396215</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.09067622165344977</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.1957128273284774</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.2308508658786745</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.752023990163189</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.7136177883570602</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.02130419891980527</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.0547133738406819</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.2922991558196644</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.05168223258886549</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.8291815208753943</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.8958801230705238</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.08108729359840856</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.2903372530636946</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.2089775876664048</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.1176094334599807</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.8123950097175772</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.7997519146834424</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.7238954256499602</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.7629550089077709</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.7172813278641919</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.7426337768238328</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.7349984727336493</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.7860571212803393</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.2456161407986955</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.1116495002562984</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.2369615524267836</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.1875580446829501</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.2599216286760098</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.07012023784992193</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.7568272714239</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.8159562141367138</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.2353501627521382</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.165787498193677</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.2639556388381704</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.05150878581157056</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.1481986466455109</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.04133105377061162</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.8745324480683194</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.8915783044130525</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.243423535359504</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.09863455450526226</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.8150333930690483</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.7473493151313814</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.8552662298138558</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.8087516159737809</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.1409906626822461</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.1408796692955975</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.8605480572627234</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.8147583632789452</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.784981264900516</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.8830645205062936</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.04514508063155862</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.2730202182189556</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.8439246155355363</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.8793921293631733</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.1578378938415101</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.04956412214035742</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.2640289419298945</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.2310970533894583</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.7705805429534374</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.8200959925006599</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.02926051104280718</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.2721414547669126</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.2165451241184723</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.1001789266613686</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.2163227222170014</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.06226501668253782</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.7051886859127645</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.7356592916895326</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.8154893072659712</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.7582737728169628</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.1000575907273498</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.2328987580915097</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.7458174614403457</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.7807881818353316</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.084406558628944</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.07957756304218341</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.8804311551274228</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.8379003182641638</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.8027813343190656</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.7298980695226699</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.8952660461576269</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.7096005207816302</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.07671848628936924</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.1707651159400771</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.1846445864823126</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.2926727430548626</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.1073266007738526</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.08811961760773719</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.1199054875346822</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.1480764953673702</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.2122237146063045</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.1805779590514751</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.2629892653673031</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.09771920507738076</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.2158674358771939</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.208225685710473</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.1890512073339367</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.2511033513579385</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.8847424598912651</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.8467265150837594</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.2819625895930841</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.2470672138463987</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.7879431124434547</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.7208346088739527</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.003102824616637312</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.0693875620212082</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.8525895373181236</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.8843387946896115</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.110678183588882</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.07180502916535045</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.00447407100577103</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.2236448749047378</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.8149535574854277</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.852715530614071</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.2603318299818537</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.2858428887961004</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.07266760972479752</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.1499189237446258</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.1385023892763662</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.2547221955807882</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.1575269812285437</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.1721340708862537</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.02170187142978035</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.2966115426099514</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.1598760707464638</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.1347905335520203</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.8366854006794744</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.7455859265457909</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.8997704865410041</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.7862676359356974</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.2598340911547362</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.176586605850496</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.7048751415773918</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.7615100991088597</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.7020083322140873</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.8400728909942736</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.7440553340507619</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.8466348827970568</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.1039654312357345</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.1074269161032724</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.2747818756469401</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.1043714378290422</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.7739205502088726</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.7048222305927742</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.7056865424975219</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.8952492692073915</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.08464016729465507</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.005237362380898591</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.2990423155482588</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.2977882194904568</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.8934257603578597</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.8584625634736319</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.2549483459633428</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.1351050819960261</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.8883959704216261</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.7821722083065674</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.249438099497408</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.04552831875330322</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.780266756671643</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.7195356539025911</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.743165797479224</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.8178661043193867</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.7466500479047128</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.7025175752156523</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.223946686064249</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.05987026751025158</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.8466607653345994</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.7475034357608117</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.8056662879400498</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.8485480822458416</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.1201748111342282</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.1239329697860057</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.1701785648219448</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.07187289683375968</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.2015970391035078</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.1427578141815475</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.05046199313501937</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.2928803256186138</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.8548382244110018</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.8637447411798534</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.79761192746146</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.7473756030079416</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.8772957321788424</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.8940977213676368</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.23335014872996</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.1452232776110381</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.8580648362113862</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.7706653085655266</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.7689268369730208</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.8509911452501387</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.1895141932303784</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.1158435740358111</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.06823593291283049</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.2302548420547996</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.007204875584504167</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.2019453415284066</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0.01077165934896808</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.2839005716321975</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.879240901066061</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.7993204788408151</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.1498846009405906</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.117133136128338</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.131920971497865</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.2362308340814526</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.2742599871307298</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.1553986794063849</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.2216815839828981</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.06190767714079735</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.2584856959117899</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.2670792293475987</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.7871887722694835</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.8445185199653595</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.2975032950341439</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.2425743529564705</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.8289881129428102</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.7248257372084627</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.1481449821308632</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.2626636462996269</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.7442078852536685</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.8408451120730465</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0.8564094997800005</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.8647462739017224</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.0156519616494677</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.2530187488273554</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.7285805017702237</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.8995058342395268</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.0540222705676641</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.1384042249022818</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.04774454616835537</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.2998663987866169</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.7735975680944676</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.838194530135272</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.7473448015126594</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.7722772970727174</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.163379988127856</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.2313420017167468</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.8313223302564692</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.7551060334784143</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.7123739085664391</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.7710702929566138</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.1831204957863967</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.2451062476915764</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.8950602649165473</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.7357373039850239</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.05716284511903593</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.1656095748127819</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.2719484710941519</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.07374355224739328</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.1894497900122367</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.1739912116783393</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.03715464942945714</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.09108233534752795</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.2371883238917386</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.07881622487029034</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.08810855468135435</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.1968975281558562</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.242267986427749</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.1339387912826751</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.7787520963500159</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.8331455656541669</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.2777355283938062</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.285038172897405</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.7054536266791042</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.7764230326233998</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.1618004073425358</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.0856954321285365</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.8395889334362689</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.8357539131892067</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.7298485562819974</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.742196822140907</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.7361173860966865</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.8577485817280395</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.06214626917899768</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.2602602064598348</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.8253687402941856</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.7930029018165455</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.2467178060909732</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.04745637058481515</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.01992903221201545</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.03116103427729337</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.7648600917037092</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.7393832330342612</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.780050147810846</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.8030112477925958</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.8282104233242389</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.7161181030565261</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.1870089309114739</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.27444664392751</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.09267729052827584</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.1738300202749815</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.2944151588358085</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.004812271605731722</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.7764161671119743</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.7932538948698469</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.7739220139513641</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.7087531981438615</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.7433768600264197</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.8893883270047842</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.7842536534138351</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.7922384923711883</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.80150546851727</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.7712307159136653</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.1537754093325071</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.1176902706150568</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.8605524565730175</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.8718728047298908</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.231057893199215</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.01212472461899753</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.8958370250537215</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.7237076237695464</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.7596049775740408</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.768696933772539</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.7830568565148445</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.7745479296564748</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.8384551419695128</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.7888048639362487</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.165486119780701</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.2060090938632566</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.7807003725083577</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.7554660827745645</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0.845976194260023</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.7228626033831205</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.7974314428130842</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.7529602601549898</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.7198423379515111</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.7641984745661528</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.1464564612898671</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.1520311215505362</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.8261087282471278</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.8428917317932356</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.8320236875806676</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.854248347481624</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.2211340782103247</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.05931874429889989</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.07338690034284839</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.2769244292084516</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.8239900957910544</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.7631335544675629</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.1732017278947335</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.03587022952805647</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0.1429891336205885</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.1168611305393095</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.09877363509633155</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.2682127556418062</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.7853495560005516</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.7231242132945569</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.7977127360886661</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.734218688398852</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.8440041651725674</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.8861523975912858</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0.7136937727981711</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.8886000702766886</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0.8579233892972165</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.854382796765681</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.1536859016388454</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.1701769550711791</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>0.05062175746461759</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.1362295620837223</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.7267259980482454</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.79979923436183</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>0.873747727952083</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.8436927996497237</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.8905808893353486</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.7985206625056362</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.8902300197127914</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.8543107279431132</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.8242081219242194</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.8734705985224538</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.7041251941734764</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.803398255317049</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.8334529189595559</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.780410698010662</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.7444638525155248</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.7765384000664178</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.1469860910528005</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.235628186323825</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.2260500275321179</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.2918450145252246</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.8514687849031385</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.812522099274803</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.1129414192552564</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.1191939143532628</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.8223192723415605</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.8092736411813011</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>0.7091525305605105</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.8239297223025315</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.234321601671938</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.08770408085434618</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.8554334294908403</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.7696717432842799</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.151093269909798</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.1665107098460903</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>0.767747244488589</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0.7560336820441509</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.02914998869212701</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.1435516397338552</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>0.1859432600335123</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.03385085603078749</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.8089115701799191</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.8642576334701361</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>0.7060515746023506</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0.8053160771424901</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.1992308617699258</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0.1959209548119206</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>0.8163084313677373</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.8122583656976685</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.7611108396690374</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.7998997378839318</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.7710680070375842</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.8018431953857433</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.8895032360379591</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0.730943375476509</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>0.2697524737733324</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0.226632979865763</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.8541657567967298</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0.8242883679950169</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>0.01366324780378923</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0.02232634394298304</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0.7939456310103941</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0.7392802867024036</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>0.05528301232053445</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0.0995125001473285</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.8004670149806673</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0.7123692676596287</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>0.1326543502840627</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0.1774143863130929</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.2205335662468453</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0.02910766787367227</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>0.8580125458698763</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0.7480958129098969</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.8496590541738906</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0.8055081044328305</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>0.189933436813044</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0.2566743897253601</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0.03749242986661418</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0.006107643039783462</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>0.06699116344253643</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0.2605110643562239</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>0.233424147149244</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0.1581928528912467</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>0.2468191499640004</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0.1605326451154269</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>0.8204153435581479</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0.7841250051546171</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>0.1869947302576426</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0.08731841144696709</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0.7622952895862295</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0.8779323416626522</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0.2423884814446184</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0.02175029521407792</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0.8027293756427204</v>
+      </c>
+      <c r="B492" t="n">
+        <v>0.8588350533372213</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>0.1346876951982615</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0.2895256123284239</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0.7494220473659948</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0.8828384138166616</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>0.1383736335423056</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0.06966383832306244</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.2780470706441666</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0.1843522646458303</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>0.7488366652622936</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0.7429938456649111</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0.01782494056113304</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0.06999090498191606</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>0.8142616207271753</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0.7865806060010567</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0.004444543925297605</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0.2924101541149626</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>0.0006627183214539922</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0.2475906353049576</v>
       </c>
     </row>
   </sheetData>
